--- a/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -61,7 +61,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -71,20 +71,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -409,7 +409,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -692,7 +692,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -88,13 +88,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF6495ED"/>
-        <x:bgColor rgb="FF6495ED"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -268,7 +268,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="23">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -312,30 +312,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -275,10 +275,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -324,12 +324,12 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.640625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="6.570625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.240625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.880625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
